--- a/biology/Histoire de la zoologie et de la botanique/William_Derham/William_Derham.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Derham/William_Derham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Derham est un homme d’église et un philosophe naturaliste britannique, né le 26 novembre 1657 à Stoulton, Worcestershire, et mort le 5 avril 1735. Son nom reste associé avec la première mesure de la vitesse du son.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Derham, fils de Thomas Derham, fait ses études à Blockley (Gloucestershire) et au Trinity College (Oxford) de 1675 à 1679[1]. Il est ordonné prêtre le 29 mai 1681. L’année suivante, il devient vicaire de Wargrave et est, de 1689 à 1735, recteur à Upminster.
-En 1696, il fait paraître Artificial Clockmaker qui connaîtra plusieurs éditions. Ses œuvres les plus connues sont Physico-Theology (1713), Astro-Theology (1714) et Christo-Theology (1730). Les deux premiers ouvrages offrent des arguments téléologiques sur l’être et les attributs de Dieu, ils seront réutilisés un siècle plus tard par William Paley (1743-1825). Il inspire également l’œuvre d’Oliver Goldsmith (1728-1774)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Derham, fils de Thomas Derham, fait ses études à Blockley (Gloucestershire) et au Trinity College (Oxford) de 1675 à 1679. Il est ordonné prêtre le 29 mai 1681. L’année suivante, il devient vicaire de Wargrave et est, de 1689 à 1735, recteur à Upminster.
+En 1696, il fait paraître Artificial Clockmaker qui connaîtra plusieurs éditions. Ses œuvres les plus connues sont Physico-Theology (1713), Astro-Theology (1714) et Christo-Theology (1730). Les deux premiers ouvrages offrent des arguments téléologiques sur l’être et les attributs de Dieu, ils seront réutilisés un siècle plus tard par William Paley (1743-1825). Il inspire également l’œuvre d’Oliver Goldsmith (1728-1774).
 Le 3 février 1730, Derham est élu membre de la Royal Society et en 1716, il est fait chanoine de Windsor. Il donne les conférences Boyle en 1711-1712. Son dernier ouvrage, A Defence of the Church’s Right in Leasehold Estates, paraît en 1731.
 Derham s’intéresse également à l’histoire naturelle et contribue à divers sujets dans les Transactions of the Royal Society, révise les Miscellanea Curiosa, édite la correspondance de John Ray (1627-1705), fait paraître la Natural History d’Eleazar Albin et publie certains manuscripts de Robert Hooke (1635-1703).
 </t>
@@ -545,7 +559,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Marja Smolenaars, ‘Derham, William (1657–1735)’, Oxford Dictionary of National Biography, Oxford University Press, 2004 (consulté le 26 mai 2007).
